--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2595294.185654446</v>
+        <v>2703936.346957259</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8986760.114205793</v>
+        <v>8992253.760194208</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>63.31863205490841</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>232.2946432462182</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>117.7416976713222</v>
       </c>
       <c r="C4" t="n">
-        <v>75.27834706433225</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>45.01116538535469</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>63.56332143571375</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>86.3958631568138</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>121.9320903613519</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>8.695085082180734</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>318.7671870369683</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>33.35420605169804</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>105.816496361417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>53.65602513333688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>13.94435783112433</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>5.623597659135302</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>53.07327741456153</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>19.17715139986178</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>74.96337793488017</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>93.05052491174621</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>71.58885292964018</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>16.09765778288736</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>95.5736260005599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>221.0162958535653</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.8493187430267</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>61.44013021076844</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367434</v>
       </c>
       <c r="W34" t="n">
-        <v>218.9829906665628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>59.96838802184633</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.82097448421662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.799772605717294</v>
       </c>
       <c r="F40" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>77.39507264402586</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.458642397731778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>278.2848243242671</v>
+        <v>143.7703193541471</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071327</v>
+        <v>1550.959102576163</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3425442071327</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D2" t="n">
-        <v>901.3425442071327</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3425442071327</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764997</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2327.698274616097</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2327.698274616097</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>2327.698274616097</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182944</v>
+        <v>2327.698274616097</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071327</v>
+        <v>1937.558942640285</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.0244191129133</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478913</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109307</v>
+        <v>1021.467062747854</v>
       </c>
       <c r="X4" t="n">
-        <v>276.0244191129133</v>
+        <v>793.4775118498371</v>
       </c>
       <c r="Y4" t="n">
-        <v>276.0244191129133</v>
+        <v>572.684932706307</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.18439714251</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>823.4220052169178</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953475</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2498.133953212566</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2244.552892476745</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2244.552892476745</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1891.784237206631</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1891.784237206631</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1891.784237206631</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
         <v>302.1446891756898</v>
@@ -4638,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>483.0441129489462</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1549.177571431251</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1549.177571431251</v>
       </c>
       <c r="U7" t="n">
-        <v>1290.303911631504</v>
+        <v>1549.177571431251</v>
       </c>
       <c r="V7" t="n">
-        <v>1035.619423425617</v>
+        <v>1549.177571431251</v>
       </c>
       <c r="W7" t="n">
-        <v>746.2022533886562</v>
+        <v>1549.177571431251</v>
       </c>
       <c r="X7" t="n">
-        <v>518.2127024906389</v>
+        <v>1321.188020533234</v>
       </c>
       <c r="Y7" t="n">
-        <v>518.2127024906389</v>
+        <v>1100.395441389704</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1136.824033225875</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C8" t="n">
-        <v>767.8615162854633</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D8" t="n">
-        <v>767.8615162854633</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0732636872191</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2639.797618797003</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2287.028963526888</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.563205265808</v>
+        <v>918.016117921866</v>
       </c>
       <c r="Y8" t="n">
-        <v>1523.423873289997</v>
+        <v>918.016117921866</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>846.3749096777597</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>531.7065349231632</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>381.5898955108274</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>233.6768019284343</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>233.6768019284343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>233.6768019284343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>84.93790379194053</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="Y10" t="n">
-        <v>1028.023374507999</v>
+        <v>700.6427178510701</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>289.7264993909625</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1138.603793935964</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1958.090220510648</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1703.405732304761</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.9885622678</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.999011369783</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2064322262529</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>3162.891787183564</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>3790.489750738171</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>4342.399480977459</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1883.470651306724</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1339.368993063877</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>2233.355914590558</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>2728.681520806317</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>3326.060008432869</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2940.5785039035</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>2940.5785039035</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>2790.461864491165</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>2642.548770908772</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2495.658823410861</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2495.658823410861</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2353.946992253059</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775287</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>3343.01954787727</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>3122.22696873374</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.58852738579</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557011</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>2878.328163333973</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.325458604698</v>
+        <v>2878.328163333973</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159305</v>
+        <v>3505.92612688858</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>4057.835857127867</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>4481.459006622935</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3122.226968733739</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C28" t="n">
-        <v>3122.226968733739</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>2972.110329321404</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018134</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812247</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775286</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.019547877269</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.226968733739</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>2770.435951460739</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2770.435951460739</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2770.435951460739</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2623.546003962828</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X31" t="n">
-        <v>1327.139029956954</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>1106.346450813424</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6777,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>2965.647484649469</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>2796.711301721562</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3885.495249558217</v>
       </c>
       <c r="W34" t="n">
-        <v>1212.506425581584</v>
+        <v>3596.078079521256</v>
       </c>
       <c r="X34" t="n">
-        <v>1212.506425581584</v>
+        <v>3368.088528623239</v>
       </c>
       <c r="Y34" t="n">
-        <v>991.7138464380538</v>
+        <v>3147.295949479709</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.647281583948</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656041</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243706</v>
+        <v>2789.255494976309</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>2789.255494976309</v>
       </c>
       <c r="F37" t="n">
         <v>2728.681365661313</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4507.978318053498</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>4218.903091397696</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3964.218603191809</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>3674.801433154848</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>3446.811882256831</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>3377.295746414188</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2567.280686761779</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>3062.606292977538</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>3659.984780604089</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>4287.582744158696</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.365298364784</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V46" t="n">
-        <v>1441.680810158897</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W46" t="n">
-        <v>1152.263640121936</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X46" t="n">
-        <v>1152.263640121936</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y46" t="n">
-        <v>931.4710609784063</v>
+        <v>906.400451171542</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>45.76488231024564</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>84.94186588374689</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>60.50016306149507</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.76488231024518</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-1.773338340300088e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.868113158932</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>134.671115187088</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>220.0860577299019</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>126.7587027673758</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>73.65209508333218</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>193.1339494774979</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>108.2431272522971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>65.16817853567818</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>50.86033664600927</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>65.16817853567889</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.982661438910554</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>104.0840080815004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="W34" t="n">
-        <v>67.54000767002819</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>85.45266000108492</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.7636788678782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408519</v>
       </c>
       <c r="F40" t="n">
-        <v>118.3918499711702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>71.2204003741865</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>215.126010954363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>7.899650064977038</v>
+        <v>142.414155035097</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>786089.1210211926</v>
+        <v>792031.0485222634</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520054</v>
@@ -26344,16 +26346,16 @@
         <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805865</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707332</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682765.8669559618</v>
+        <v>-682765.8669559623</v>
       </c>
       <c r="C6" t="n">
-        <v>431985.9166199573</v>
+        <v>431985.9166199574</v>
       </c>
       <c r="D6" t="n">
-        <v>270187.8756216369</v>
+        <v>431985.9166199574</v>
       </c>
       <c r="E6" t="n">
-        <v>212284.8636240351</v>
+        <v>30211.88380684481</v>
       </c>
       <c r="F6" t="n">
-        <v>537697.3254313902</v>
+        <v>537697.3254313908</v>
       </c>
       <c r="G6" t="n">
-        <v>537697.3254313905</v>
+        <v>537697.3254313904</v>
       </c>
       <c r="H6" t="n">
-        <v>537697.3254313905</v>
+        <v>537697.3254313909</v>
       </c>
       <c r="I6" t="n">
-        <v>537697.3254313903</v>
+        <v>537697.3254313909</v>
       </c>
       <c r="J6" t="n">
-        <v>370092.1476214085</v>
+        <v>370092.1476214082</v>
       </c>
       <c r="K6" t="n">
         <v>537697.3254313909</v>
       </c>
       <c r="L6" t="n">
-        <v>489403.3554231997</v>
+        <v>537697.3254313904</v>
       </c>
       <c r="M6" t="n">
-        <v>452642.2974958789</v>
+        <v>405090.0317024636</v>
       </c>
       <c r="N6" t="n">
         <v>537697.3254313907</v>
       </c>
       <c r="O6" t="n">
+        <v>537697.3254313907</v>
+      </c>
+      <c r="P6" t="n">
         <v>537697.3254313905</v>
-      </c>
-      <c r="P6" t="n">
-        <v>537697.3254313907</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,19 +26804,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>343.557413686803</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>18.75060688224377</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>62.0902825106151</v>
       </c>
       <c r="C4" t="n">
-        <v>91.96847403429558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>309.6718762353283</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>143.09486354452</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>108.2665972049237</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>164.2950637598487</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>374.0387565812998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>8.985071433166638</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>71.44238915220254</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.7681569906778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>537.262354434964</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870023</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N24" t="n">
-        <v>487.5039436775321</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>597.1709559744716</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451597</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>253.1045048722855</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>576.0573465136306</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206127</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>453.4978307576758</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>277.2922978908106</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>436.9619819031195</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>201.4225882146015</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>247.0876593049799</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>381.1895643063683</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>394.6661099905195</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556927</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N24" t="n">
-        <v>356.1622315941988</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524533</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>174.4792836591382</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>114.5501250924114</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>314.9434509778017</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>134.6960534463662</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2703936.346957259</v>
+        <v>2699799.189707107</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8992253.760194208</v>
+        <v>8992253.760194207</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>194.3882231773675</v>
       </c>
       <c r="U2" t="n">
-        <v>232.2946432462182</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.7416976713222</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>54.9928322893863</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.01116538535469</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>146.9246168288998</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>85.4556421029896</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>86.3958631568138</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.695085082180734</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>233.8447291789213</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>33.35420605169804</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>18.54456155441787</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>36.86080948088104</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>53.65602513333688</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>13.94435783112433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7722084536801</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.07327741456153</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>74.96337793488017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.58885292964018</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>221.0162958535653</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>61.44013021076844</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>46.29306638367434</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>59.96838802184633</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.799772605717294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>77.39507264402586</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>143.7703193541471</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.959102576163</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2241.288380343426</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.698274616097</v>
+        <v>1987.707319607606</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.698274616097</v>
+        <v>1656.644432264035</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.698274616097</v>
+        <v>1303.875776993921</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.698274616097</v>
+        <v>930.410018732841</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.558942640285</v>
+        <v>540.2706867570292</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.9309660677</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453.7539249574967</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C4" t="n">
-        <v>453.7539249574967</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.467062747854</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X4" t="n">
-        <v>793.4775118498371</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.684932706307</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1192.384522157329</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>823.4220052169178</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>1026.346145500897</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>615.3602407112899</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>199.6554904355787</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.523854133141</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.384522157329</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>483.0441129489462</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.7469765594642</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1549.177571431251</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1549.177571431251</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1549.177571431251</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1549.177571431251</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1549.177571431251</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>1321.188020533234</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>1100.395441389704</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>909.233203697441</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>540.2706867570294</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>540.2706867570294</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.25053145306</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182946</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>918.016117921866</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.016117921866</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.6427178510701</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>531.7065349231632</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>381.5898955108274</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>233.6768019284343</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>233.6768019284343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>233.6768019284343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>84.93790379194053</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1617.714239716499</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1421.08549187636</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1421.08549187636</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1131.967154380198</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880306</v>
+        <v>877.2826661743111</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510701</v>
+        <v>587.8654961373505</v>
       </c>
       <c r="X10" t="n">
-        <v>700.6427178510701</v>
+        <v>587.8654961373505</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.6427178510701</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836018</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D13" t="n">
-        <v>584.529540471266</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888729</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>289.7264993909625</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816191</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>793.6995478537123</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2237.723229879451</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.121764902392</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.046538246589</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1474.362050040702</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1184.944880003742</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611859</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K18" t="n">
-        <v>251.5626541092265</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249853</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>2565.513299557012</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>3162.891787183564</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>3790.489750738171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>4342.399480977459</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556949</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118214</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>2383.002557118214</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>2878.328163333973</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>2878.328163333973</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>3505.92612688858</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>4057.835857127867</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4481.459006622935</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2939.372134388645</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2770.435951460739</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2770.435951460739</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2770.435951460739</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2623.546003962828</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2965.647484649469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2796.711301721562</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3885.495249558217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3596.078079521256</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3368.088528623239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3147.295949479709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2939.372134388645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2939.372134388645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2789.255494976309</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>2789.255494976309</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1899.284239455937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.94186588374689</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>60.50016306149507</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>111.868113158932</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>40.2540775479645</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.7587027673758</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>73.65209508333218</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.2431272522971</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>65.16817853567889</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>104.0840080815004</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>205.8445769401537</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>85.45266000108492</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>144.6341900408519</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>71.2204003741865</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>142.414155035097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.7093556293</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.7093556293</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914273</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="K2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707332</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707415</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707361</v>
@@ -26453,13 +26453,13 @@
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682765.8669559623</v>
+        <v>-682765.8669559621</v>
       </c>
       <c r="C6" t="n">
-        <v>431985.9166199574</v>
+        <v>431985.9166199577</v>
       </c>
       <c r="D6" t="n">
-        <v>431985.9166199574</v>
+        <v>431985.9166199573</v>
       </c>
       <c r="E6" t="n">
-        <v>30211.88380684481</v>
+        <v>29864.50455248792</v>
       </c>
       <c r="F6" t="n">
-        <v>537697.3254313908</v>
+        <v>537349.9461770334</v>
       </c>
       <c r="G6" t="n">
-        <v>537697.3254313904</v>
+        <v>537349.9461770334</v>
       </c>
       <c r="H6" t="n">
-        <v>537697.3254313909</v>
+        <v>537349.9461770331</v>
       </c>
       <c r="I6" t="n">
-        <v>537697.3254313909</v>
+        <v>537349.9461770332</v>
       </c>
       <c r="J6" t="n">
-        <v>370092.1476214082</v>
+        <v>369744.7683670509</v>
       </c>
       <c r="K6" t="n">
-        <v>537697.3254313909</v>
+        <v>537349.9461770334</v>
       </c>
       <c r="L6" t="n">
-        <v>537697.3254313904</v>
+        <v>537349.9461770332</v>
       </c>
       <c r="M6" t="n">
-        <v>405090.0317024636</v>
+        <v>404742.6524481066</v>
       </c>
       <c r="N6" t="n">
-        <v>537697.3254313907</v>
+        <v>537349.9461770335</v>
       </c>
       <c r="O6" t="n">
-        <v>537697.3254313907</v>
+        <v>537349.9461770332</v>
       </c>
       <c r="P6" t="n">
-        <v>537697.3254313905</v>
+        <v>537349.9461770334</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,19 +26804,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>12.26996180286631</v>
       </c>
       <c r="U2" t="n">
-        <v>18.75060688224377</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.0902825106151</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>170.7168230996509</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>309.6718762353283</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>154.0939357335055</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>108.2665972049237</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0387565812998</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>173.0313165627901</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>71.44238915220254</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>83.01301086515576</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>565.8030433278966</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>172.8142548092788</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312108</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312108</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870023</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>491.1355220041054</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>314.4610577451597</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>576.0573465136306</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34789,16 +34789,16 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>201.4225882146015</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>247.0876593049799</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>423.6690094058782</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867663</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867663</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556927</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>349.0014880820871</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>174.4792836591382</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>433.4611020691861</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2699799.189707107</v>
+        <v>2701559.720009891</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>399.2777409700883</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>194.3882231773675</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>9.115157082286244</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>54.9928322893863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>146.9246168288998</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>20.310498456976</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>85.4556421029896</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8447291789213</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>141.200796474013</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54456155441787</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>36.86080948088104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>106.5290632934499</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>140.7722084536801</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>120.7871326503968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>177.9413471369465</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="41">
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>26.70391688093253</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.2706867570292</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2706867570292</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570292</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570292</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>520.9312851968504</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2241.288380343426</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1987.707319607606</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1656.644432264035</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1303.875776993921</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>930.410018732841</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.2706867570292</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4482,13 +4482,13 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4530,10 +4530,10 @@
         <v>1439.817372234359</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>1211.827821336341</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>991.0352421928111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C5" t="n">
-        <v>1412.134398099142</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>1412.134398099142</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>1026.346145500897</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>615.3602407112899</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>199.6554904355787</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.823673393109</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>837.079342274803</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624673</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800742</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D8" t="n">
-        <v>684.90618255198</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>299.1179299537358</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>2295.013053781158</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.0729169938204</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1617.714239716499</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1421.08549187636</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="T10" t="n">
-        <v>1421.08549187636</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U10" t="n">
-        <v>1131.967154380198</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V10" t="n">
-        <v>877.2826661743111</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>587.8654961373505</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>587.8654961373505</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>367.0729169938204</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409695</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>816.8474788130626</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239595</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397181</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820876</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.723229879451</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.121764902392</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.046538246589</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1474.362050040702</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1184.944880003742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239595</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397181</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820876</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6305,19 +6305,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,19 +6779,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>219.0505596597677</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2414.36154645157</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2125.286319795768</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601769</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8297,25 +8297,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.45443753892954</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>40.2540775479645</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>44.73700564187207</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>74.19629618688151</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556293</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772888.7093556293</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914271</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245457</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26426,37 +26426,37 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707415</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707425</v>
-      </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707441</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682765.8669559621</v>
+        <v>-682765.8669559623</v>
       </c>
       <c r="C6" t="n">
-        <v>431985.9166199577</v>
+        <v>431985.9166199574</v>
       </c>
       <c r="D6" t="n">
-        <v>431985.9166199573</v>
+        <v>431985.9166199572</v>
       </c>
       <c r="E6" t="n">
-        <v>29864.50455248792</v>
+        <v>30177.14588140877</v>
       </c>
       <c r="F6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="G6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059547</v>
       </c>
       <c r="H6" t="n">
-        <v>537349.9461770331</v>
+        <v>537662.587505955</v>
       </c>
       <c r="I6" t="n">
-        <v>537349.9461770332</v>
+        <v>537662.587505955</v>
       </c>
       <c r="J6" t="n">
-        <v>369744.7683670509</v>
+        <v>370057.409695972</v>
       </c>
       <c r="K6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059546</v>
       </c>
       <c r="L6" t="n">
-        <v>537349.9461770332</v>
+        <v>537662.5875059546</v>
       </c>
       <c r="M6" t="n">
-        <v>404742.6524481066</v>
+        <v>405055.2937770278</v>
       </c>
       <c r="N6" t="n">
-        <v>537349.9461770335</v>
+        <v>537662.587505955</v>
       </c>
       <c r="O6" t="n">
-        <v>537349.9461770332</v>
+        <v>537662.5875059551</v>
       </c>
       <c r="P6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059547</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241344</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.26996180286568</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>12.26996180286631</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>170.7168230996511</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>170.7168230996509</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>154.0939357335055</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>103.1417169418184</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80.85095794181458</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>235.2464059957725</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>173.0313165627901</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>65.45738850622078</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>83.01301086515576</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>143.6817122363089</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="30">
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>565.8030433278966</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312108</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>549.9198891312108</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>382.1329742631541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>488.7223436347931</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33973,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34789,16 +34789,16 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530509</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>341.8791195350526</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>423.6690094058782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396427</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867663</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>407.3236446867663</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36199,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>248.1585668488238</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>350.1679638549189</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
